--- a/examples/etl_example_empty.xlsx
+++ b/examples/etl_example_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SOURCE_SERVER</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>INDEX_PARTITION_COLUMN</t>
+  </si>
+  <si>
+    <t>USER_REFINED_PK</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -509,9 +512,10 @@
     <col min="21" max="21" width="31.5" customWidth="1"/>
     <col min="22" max="22" width="14.33203125" customWidth="1"/>
     <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,6 +584,9 @@
       </c>
       <c r="W1" t="s">
         <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/examples/etl_example_empty.xlsx
+++ b/examples/etl_example_empty.xlsx
@@ -90,7 +90,7 @@
     <t>INDEX_PARTITION_COLUMN</t>
   </si>
   <si>
-    <t>USER_REFINED_PK</t>
+    <t>SOURCE_TABLE_PRIMARY_KEY</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -496,23 +496,22 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="38.1640625" customWidth="1"/>
     <col min="7" max="7" width="37.1640625" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="33.5" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="31.1640625" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="25.5" customWidth="1"/>
-    <col min="19" max="19" width="33.6640625" customWidth="1"/>
-    <col min="20" max="20" width="31.33203125" customWidth="1"/>
-    <col min="21" max="21" width="31.5" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
-    <col min="24" max="24" width="18.83203125" customWidth="1"/>
+    <col min="8" max="9" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="33.5" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" customWidth="1"/>
+    <col min="18" max="18" width="31.1640625" customWidth="1"/>
+    <col min="19" max="19" width="25.5" customWidth="1"/>
+    <col min="20" max="20" width="33.6640625" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="31.5" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -541,52 +540,52 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/examples/etl_example_empty.xlsx
+++ b/examples/etl_example_empty.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincechavez/Work/UMA_DATA/ETL_AUTOMATION/examples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9B1E6-0D20-234A-9C6E-CC753821D9B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SOURCE_SERVER</t>
   </si>
@@ -91,12 +97,15 @@
   </si>
   <si>
     <t>SOURCE_TABLE_PRIMARY_KEY</t>
+  </si>
+  <si>
+    <t>SOURCE_EXCLUDED_COLUMNS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,6 +166,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,14 +498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="3" width="20.5" customWidth="1"/>
@@ -496,25 +513,25 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="38.1640625" customWidth="1"/>
     <col min="7" max="7" width="37.1640625" customWidth="1"/>
-    <col min="8" max="9" width="38.5" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="33.5" customWidth="1"/>
-    <col min="15" max="15" width="30" customWidth="1"/>
-    <col min="16" max="16" width="31.1640625" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" customWidth="1"/>
-    <col min="18" max="18" width="31.1640625" customWidth="1"/>
-    <col min="19" max="19" width="25.5" customWidth="1"/>
-    <col min="20" max="20" width="33.6640625" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" customWidth="1"/>
-    <col min="22" max="22" width="31.5" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" customWidth="1"/>
+    <col min="8" max="10" width="38.5" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
+    <col min="16" max="16" width="30" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="33.6640625" customWidth="1"/>
+    <col min="19" max="19" width="31.1640625" customWidth="1"/>
+    <col min="20" max="20" width="25.5" customWidth="1"/>
+    <col min="21" max="21" width="33.6640625" customWidth="1"/>
+    <col min="22" max="22" width="31.33203125" customWidth="1"/>
+    <col min="23" max="23" width="31.5" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,48 +560,51 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/examples/etl_example_empty.xlsx
+++ b/examples/etl_example_empty.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincechavez/Work/UMA_DATA/ETL_AUTOMATION/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9B1E6-0D20-234A-9C6E-CC753821D9B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8BBCA-1584-1D4C-8F08-B0D6ABB6B1EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SOURCE_SERVER</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>SOURCE_EXCLUDED_COLUMNS</t>
+  </si>
+  <si>
+    <t>STORED_PROCEDURE_SCHEMA</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,16 +525,16 @@
     <col min="16" max="16" width="30" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" customWidth="1"/>
     <col min="18" max="18" width="33.6640625" customWidth="1"/>
-    <col min="19" max="19" width="31.1640625" customWidth="1"/>
-    <col min="20" max="20" width="25.5" customWidth="1"/>
-    <col min="21" max="21" width="33.6640625" customWidth="1"/>
-    <col min="22" max="22" width="31.33203125" customWidth="1"/>
-    <col min="23" max="23" width="31.5" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" customWidth="1"/>
+    <col min="19" max="20" width="31.1640625" customWidth="1"/>
+    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="33.6640625" customWidth="1"/>
+    <col min="23" max="23" width="31.33203125" customWidth="1"/>
+    <col min="24" max="24" width="31.5" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,21 +593,24 @@
         <v>22</v>
       </c>
       <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
